--- a/uploads/ImportAlternatif.xlsx
+++ b/uploads/ImportAlternatif.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>Nama Industri</t>
   </si>
@@ -41,13 +41,142 @@
     <t>Bahan Baku</t>
   </si>
   <si>
-    <t>Coklat Klasik</t>
-  </si>
-  <si>
-    <t>Jambangan</t>
+    <t>Kerajinan Bubut Kayu - Soeb</t>
+  </si>
+  <si>
+    <t>Bebet - Kasiman</t>
   </si>
   <si>
     <t>A3</t>
+  </si>
+  <si>
+    <t>Kerajinan Kayu - Kosim</t>
+  </si>
+  <si>
+    <t>Batokan - Kasiman</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>Kerajinan Tunggak Jati - Lasiman</t>
+  </si>
+  <si>
+    <t>Geneng - Margomulyo</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>Kerajinan Tunggak Jati - Sukarjo</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>Kerajinan Tunggak Jati - Sunarto</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>Kerajinan Tunggak Jati - Isram</t>
+  </si>
+  <si>
+    <t>Meduri - Margomulyo</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>Kerajinan Tunggak Jati - Noto Susanto</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>Kerajinan Tunggak Jati - Sri Wahyuni</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>Meubelair - Sumarno</t>
+  </si>
+  <si>
+    <t>Sukorejo - Bojonegoro</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meubelair - Setyo Sulaksono </t>
+  </si>
+  <si>
+    <t>Sumbang - Bojonegoro</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>Meubelair - Gunawan</t>
+  </si>
+  <si>
+    <t>Sambeng - Kasiman</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>Meubelair - Makruf</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>Meubelair - Jimin</t>
+  </si>
+  <si>
+    <t>Sekaran - Kasiman</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>Meubelair - Munawar</t>
+  </si>
+  <si>
+    <t>Mojorejo - Kedungadem</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>Meubelair - Sumadi</t>
+  </si>
+  <si>
+    <t>Sidomukti - Kepohbaru</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>Meubelair - Suminah</t>
+  </si>
+  <si>
+    <t>Dukolohor - Malo</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>Meubelair - Imboh</t>
+  </si>
+  <si>
+    <t>Tapelan - Ngraho</t>
+  </si>
+  <si>
+    <t>A19</t>
   </si>
 </sst>
 </file>
@@ -100,11 +229,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -406,16 +541,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="true" style="0"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true" style="0"/>
+    <col min="1" max="1" width="34.85546875" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20.85546875" customWidth="true" style="0"/>
+    <col min="3" max="3" width="14.5703125" customWidth="true" style="0"/>
     <col min="4" max="4" width="12.28515625" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.85546875" customWidth="true" style="0"/>
     <col min="6" max="6" width="17.7109375" customWidth="true" style="0"/>
@@ -460,266 +596,542 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>16500</v>
+      </c>
+      <c r="F2" s="1">
+        <v>600</v>
+      </c>
+      <c r="G2" s="1">
+        <v>30000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>13750</v>
+      </c>
+      <c r="F3" s="1">
+        <v>500</v>
+      </c>
+      <c r="G3" s="1">
+        <v>25000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>13750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>12500</v>
+      </c>
+      <c r="F4" s="1">
+        <v>700</v>
+      </c>
+      <c r="G4" s="1">
+        <v>25000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>16500</v>
+      </c>
+      <c r="F5" s="1">
+        <v>450</v>
+      </c>
+      <c r="G5" s="1">
+        <v>20250</v>
+      </c>
+      <c r="H5" s="1">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1">
-        <v>20000</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2500</v>
-      </c>
-      <c r="G2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>11138</v>
+      </c>
+      <c r="F6" s="1">
+        <v>300</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>11138</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>14300</v>
+      </c>
+      <c r="F7" s="1">
+        <v>520</v>
+      </c>
+      <c r="G7" s="1">
+        <v>35000</v>
+      </c>
+      <c r="H7" s="1">
+        <v>14300</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>16500</v>
+      </c>
+      <c r="F8" s="1">
+        <v>400</v>
+      </c>
+      <c r="G8" s="1">
+        <v>25000</v>
+      </c>
+      <c r="H8" s="1">
+        <v>16500</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>14850</v>
+      </c>
+      <c r="F9" s="1">
+        <v>500</v>
+      </c>
+      <c r="G9" s="1">
+        <v>26000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>14850</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>17875</v>
+      </c>
+      <c r="F10" s="1">
+        <v>450</v>
+      </c>
+      <c r="G10" s="1">
+        <v>22000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>17875</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>13200</v>
+      </c>
+      <c r="F11" s="1">
+        <v>450</v>
+      </c>
+      <c r="G11" s="1">
+        <v>30000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>13200</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>12870</v>
+      </c>
+      <c r="F12" s="1">
+        <v>650</v>
+      </c>
+      <c r="G12" s="1">
+        <v>27000</v>
+      </c>
+      <c r="H12" s="1">
+        <v>12870</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>13750</v>
+      </c>
+      <c r="F13" s="1">
+        <v>640</v>
+      </c>
+      <c r="G13" s="1">
+        <v>24000</v>
+      </c>
+      <c r="H13" s="1">
+        <v>13750</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>24750</v>
+      </c>
+      <c r="F14" s="1">
+        <v>200</v>
+      </c>
+      <c r="G14" s="1">
+        <v>25500</v>
+      </c>
+      <c r="H14" s="1">
+        <v>24750</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>16335</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>25000</v>
+      </c>
+      <c r="H15" s="1">
+        <v>16335</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>17654</v>
+      </c>
+      <c r="F16" s="1">
+        <v>540</v>
+      </c>
+      <c r="G16" s="1">
+        <v>24000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>17654</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>11138</v>
+      </c>
+      <c r="F17" s="1">
+        <v>500</v>
+      </c>
+      <c r="G17" s="1">
+        <v>23000</v>
+      </c>
+      <c r="H17" s="1">
+        <v>11138</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>12870</v>
+      </c>
+      <c r="F18" s="1">
+        <v>400</v>
+      </c>
+      <c r="G18" s="1">
+        <v>21000</v>
+      </c>
+      <c r="H18" s="1">
+        <v>12870</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="3"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
